--- a/general_mills/final_statements_standardized/Consolidated Balance Sheets.xlsx
+++ b/general_mills/final_statements_standardized/Consolidated Balance Sheets.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Projects\Financial Statement Data Retriever\general_mills\final_statements_standardized\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C40661A-46C3-41A8-ABB6-AAAAF782D343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>2021</t>
   </si>
@@ -34,6 +28,9 @@
     <t>2025</t>
   </si>
   <si>
+    <t>May 28, 2023</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>Other Intangible Assets</t>
   </si>
   <si>
+    <t>Deferred Income Taxes</t>
+  </si>
+  <si>
     <t>Other Assets</t>
   </si>
   <si>
@@ -91,9 +91,6 @@
     <t>Long-Term Debt</t>
   </si>
   <si>
-    <t>Deferred Income Taxes</t>
-  </si>
-  <si>
     <t>Other Liabilities</t>
   </si>
   <si>
@@ -118,22 +115,10 @@
     <t>Common Stock In Treasury</t>
   </si>
   <si>
-    <t>Common Stock In Treasury, At Cost, Shares Of 146.9 And 144.8</t>
-  </si>
-  <si>
-    <t>Common Stock In Treasury, At Cost, Shares Of 168.0 And 155.7</t>
-  </si>
-  <si>
-    <t>Common Stock In Treasury, At Cost, Shares Of 195.5 And 168.0</t>
-  </si>
-  <si>
-    <t>Common Stock In Treasury, At Cost, Shares Of 212.2 And 195.5</t>
+    <t>Total Stockholders' Equity</t>
   </si>
   <si>
     <t>Noncontrolling Interests</t>
-  </si>
-  <si>
-    <t>Total Stockholders' Equity</t>
   </si>
   <si>
     <t>Total Equity</t>
@@ -145,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,21 +194,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,7 +238,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -295,7 +272,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,10 +306,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,21 +481,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -528,19 +498,19 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>2023</v>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1505.2</v>
@@ -549,18 +519,18 @@
         <v>569.4</v>
       </c>
       <c r="D2">
+        <v>418</v>
+      </c>
+      <c r="E2">
+        <v>363.9</v>
+      </c>
+      <c r="F2">
         <v>585.5</v>
       </c>
-      <c r="E2">
-        <v>418</v>
-      </c>
-      <c r="F2">
-        <v>363.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1638.5</v>
@@ -569,18 +539,18 @@
         <v>1692.1</v>
       </c>
       <c r="D3">
+        <v>1696.2</v>
+      </c>
+      <c r="E3">
+        <v>1795.9</v>
+      </c>
+      <c r="F3">
         <v>1683.2</v>
       </c>
-      <c r="E3">
-        <v>1696.2</v>
-      </c>
-      <c r="F3">
-        <v>1795.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1820.5</v>
@@ -589,18 +559,18 @@
         <v>1867.3</v>
       </c>
       <c r="D4">
+        <v>1898.2</v>
+      </c>
+      <c r="E4">
+        <v>1910.8</v>
+      </c>
+      <c r="F4">
         <v>2172</v>
       </c>
-      <c r="E4">
-        <v>1898.2</v>
-      </c>
-      <c r="F4">
-        <v>1910.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>790.3</v>
@@ -609,18 +579,18 @@
         <v>802.1</v>
       </c>
       <c r="D5">
+        <v>568.5</v>
+      </c>
+      <c r="E5">
+        <v>464.7</v>
+      </c>
+      <c r="F5">
         <v>735.7</v>
       </c>
-      <c r="E5">
-        <v>568.5</v>
-      </c>
-      <c r="F5">
-        <v>464.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -632,15 +602,15 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>740.4</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>740.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>5754.5</v>
@@ -649,18 +619,18 @@
         <v>5089.8</v>
       </c>
       <c r="D7">
-        <v>5176.3999999999996</v>
+        <v>4580.9</v>
       </c>
       <c r="E7">
-        <v>4580.8999999999996</v>
+        <v>5275.7</v>
       </c>
       <c r="F7">
-        <v>5275.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5176.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>3606.8</v>
@@ -669,18 +639,18 @@
         <v>3393.8</v>
       </c>
       <c r="D8">
+        <v>3863.9</v>
+      </c>
+      <c r="E8">
+        <v>3632.6</v>
+      </c>
+      <c r="F8">
         <v>3636.2</v>
       </c>
-      <c r="E8">
-        <v>3863.9</v>
-      </c>
-      <c r="F8">
-        <v>3632.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>14062.4</v>
@@ -689,18 +659,18 @@
         <v>14378.5</v>
       </c>
       <c r="D9">
+        <v>14750.7</v>
+      </c>
+      <c r="E9">
+        <v>15622.4</v>
+      </c>
+      <c r="F9">
         <v>14511.2</v>
       </c>
-      <c r="E9">
-        <v>14750.7</v>
-      </c>
-      <c r="F9">
-        <v>15622.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>7150.6</v>
@@ -709,218 +679,218 @@
         <v>6999.9</v>
       </c>
       <c r="D10">
+        <v>6979.9</v>
+      </c>
+      <c r="E10">
+        <v>7081.4</v>
+      </c>
+      <c r="F10">
         <v>6967.6</v>
       </c>
-      <c r="E10">
-        <v>6979.9</v>
-      </c>
-      <c r="F10">
-        <v>7081.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>1267.5999999999999</v>
+        <v>2118.4</v>
       </c>
       <c r="C11">
-        <v>1228.0999999999999</v>
+        <v>2218.3</v>
       </c>
       <c r="D11">
+        <v>2200.6</v>
+      </c>
+      <c r="E11">
+        <v>2100.8</v>
+      </c>
+      <c r="F11">
+        <v>2110.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1267.6</v>
+      </c>
+      <c r="C12">
+        <v>1228.1</v>
+      </c>
+      <c r="D12">
+        <v>1294.5</v>
+      </c>
+      <c r="E12">
+        <v>1459</v>
+      </c>
+      <c r="F12">
         <v>1160.3</v>
       </c>
-      <c r="E11">
-        <v>1294.5</v>
-      </c>
-      <c r="F11">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
         <v>31841.9</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>31090.1</v>
       </c>
-      <c r="D12">
+      <c r="D13">
+        <v>31469.9</v>
+      </c>
+      <c r="E13">
+        <v>33071.1</v>
+      </c>
+      <c r="F13">
         <v>31451.7</v>
       </c>
-      <c r="E12">
-        <v>31469.9</v>
-      </c>
-      <c r="F12">
-        <v>33071.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
         <v>3653.5</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3982.3</v>
       </c>
-      <c r="D13">
+      <c r="D14">
+        <v>3987.8</v>
+      </c>
+      <c r="E14">
+        <v>4009.5</v>
+      </c>
+      <c r="F14">
         <v>4194.2</v>
       </c>
-      <c r="E13">
-        <v>3987.8</v>
-      </c>
-      <c r="F13">
-        <v>4009.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
         <v>361.3</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>811.4</v>
       </c>
-      <c r="D14">
+      <c r="D15">
+        <v>11.8</v>
+      </c>
+      <c r="E15">
+        <v>677</v>
+      </c>
+      <c r="F15">
         <v>31.7</v>
       </c>
-      <c r="E14">
-        <v>11.8</v>
-      </c>
-      <c r="F14">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>2463.8000000000002</v>
-      </c>
-      <c r="C15">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2463.8</v>
+      </c>
+      <c r="C16">
         <v>1674.2</v>
       </c>
-      <c r="D15">
+      <c r="D16">
+        <v>1614.1</v>
+      </c>
+      <c r="E16">
+        <v>1528.4</v>
+      </c>
+      <c r="F16">
         <v>1709.1</v>
       </c>
-      <c r="E15">
-        <v>1614.1</v>
-      </c>
-      <c r="F15">
-        <v>1528.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
         <v>1787.2</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1552</v>
       </c>
-      <c r="D16">
+      <c r="D17">
+        <v>1419.4</v>
+      </c>
+      <c r="E17">
+        <v>1624</v>
+      </c>
+      <c r="F17">
         <v>1600.7</v>
       </c>
-      <c r="E16">
-        <v>1419.4</v>
-      </c>
-      <c r="F16">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E18">
+        <v>18.4</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>8265.7999999999993</v>
-      </c>
-      <c r="C18">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>8265.799999999999</v>
+      </c>
+      <c r="C19">
         <v>8019.9</v>
       </c>
-      <c r="D18">
+      <c r="D19">
+        <v>7033.1</v>
+      </c>
+      <c r="E19">
+        <v>7857.3</v>
+      </c>
+      <c r="F19">
         <v>7535.7</v>
       </c>
-      <c r="E18">
-        <v>7033.1</v>
-      </c>
-      <c r="F18">
-        <v>7857.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
         <v>9786.9</v>
       </c>
-      <c r="C19">
-        <v>9134.7999999999993</v>
-      </c>
-      <c r="D19">
+      <c r="C20">
+        <v>9134.799999999999</v>
+      </c>
+      <c r="D20">
+        <v>11304.2</v>
+      </c>
+      <c r="E20">
+        <v>12673.2</v>
+      </c>
+      <c r="F20">
         <v>9965.1</v>
       </c>
-      <c r="E19">
-        <v>11304.2</v>
-      </c>
-      <c r="F19">
-        <v>12673.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>2118.4</v>
-      </c>
-      <c r="C20">
-        <v>2218.3000000000002</v>
-      </c>
-      <c r="D20">
-        <v>2110.9</v>
-      </c>
-      <c r="E20">
-        <v>2200.6</v>
-      </c>
-      <c r="F20">
-        <v>2100.8000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>1292.7</v>
@@ -929,38 +899,38 @@
         <v>929.1</v>
       </c>
       <c r="D21">
+        <v>1283.5</v>
+      </c>
+      <c r="E21">
+        <v>1228.6</v>
+      </c>
+      <c r="F21">
         <v>1140</v>
       </c>
-      <c r="E21">
-        <v>1283.5</v>
-      </c>
-      <c r="F21">
-        <v>1228.5999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>21463.8</v>
       </c>
       <c r="C22">
-        <v>20302.099999999999</v>
+        <v>20302.1</v>
       </c>
       <c r="D22">
+        <v>21821.4</v>
+      </c>
+      <c r="E22">
+        <v>23859.9</v>
+      </c>
+      <c r="F22">
         <v>20751.7</v>
       </c>
-      <c r="E22">
-        <v>21821.4</v>
-      </c>
-      <c r="F22">
-        <v>23859.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>604.9</v>
@@ -978,9 +948,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>75.5</v>
@@ -998,244 +968,164 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>1365.5</v>
       </c>
       <c r="C25">
-        <v>1182.9000000000001</v>
+        <v>1182.9</v>
       </c>
       <c r="D25">
-        <v>1222.4000000000001</v>
+        <v>1227</v>
       </c>
       <c r="E25">
-        <v>1227</v>
+        <v>1218.8</v>
       </c>
       <c r="F25">
-        <v>1218.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1222.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>17069.8</v>
       </c>
       <c r="C26">
-        <v>18532.599999999999</v>
+        <v>18532.6</v>
       </c>
       <c r="D26">
-        <v>19838.599999999999</v>
+        <v>20971.8</v>
       </c>
       <c r="E26">
-        <v>20971.8</v>
+        <v>21917.8</v>
       </c>
       <c r="F26">
-        <v>21917.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19838.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>-2429.1999999999998</v>
+        <v>-2429.2</v>
       </c>
       <c r="C27">
         <v>-1970.5</v>
       </c>
       <c r="D27">
+        <v>-2519.7</v>
+      </c>
+      <c r="E27">
+        <v>-2545</v>
+      </c>
+      <c r="F27">
         <v>-2276.9</v>
       </c>
-      <c r="E27">
-        <v>-2519.6999999999998</v>
-      </c>
-      <c r="F27">
-        <v>-2545</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-6611.2</v>
       </c>
       <c r="C28">
         <v>-7278.1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-10357.9</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>-11467.9</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-8410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-6611.2</v>
+        <v>9470.4</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>10542.4</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>9396.700000000001</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>9199.200000000001</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10449.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>302.8</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>245.6</v>
       </c>
       <c r="D30">
-        <v>-8410</v>
+        <v>251.8</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>250.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>9773.200000000001</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>10788</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>9648.5</v>
       </c>
       <c r="E31">
-        <v>-10357.9</v>
+        <v>9211.200000000001</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>31841.9</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>31090.1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>31469.9</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>33071.1</v>
       </c>
       <c r="F32">
-        <v>-11467.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>302.8</v>
-      </c>
-      <c r="C33">
-        <v>245.6</v>
-      </c>
-      <c r="D33">
-        <v>250.4</v>
-      </c>
-      <c r="E33">
-        <v>251.8</v>
-      </c>
-      <c r="F33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>9470.4</v>
-      </c>
-      <c r="C34">
-        <v>10542.4</v>
-      </c>
-      <c r="D34">
-        <v>10449.6</v>
-      </c>
-      <c r="E34">
-        <v>9396.7000000000007</v>
-      </c>
-      <c r="F34">
-        <v>9199.2000000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>9773.2000000000007</v>
-      </c>
-      <c r="C35">
-        <v>10788</v>
-      </c>
-      <c r="D35">
-        <v>10700</v>
-      </c>
-      <c r="E35">
-        <v>9648.5</v>
-      </c>
-      <c r="F35">
-        <v>9211.2000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>31841.9</v>
-      </c>
-      <c r="C36">
-        <v>31090.1</v>
-      </c>
-      <c r="D36">
         <v>31451.7</v>
-      </c>
-      <c r="E36">
-        <v>31469.9</v>
-      </c>
-      <c r="F36">
-        <v>33071.1</v>
       </c>
     </row>
   </sheetData>
